--- a/temp/test.xlsx
+++ b/temp/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D82505-A914-4D29-9D84-EAF85CA9A8A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B16A76-E9BE-45A0-9ECC-C9DA7D7B42DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -170,24 +170,6 @@
   </si>
   <si>
     <t>hovaten20</t>
-  </si>
-  <si>
-    <t>Chú thích</t>
-  </si>
-  <si>
-    <t>điểm số được chia đều cho các câu</t>
-  </si>
-  <si>
-    <t>1 câu có thể có nhiều G, 1 G có thể thuộc nhiều câu</t>
-  </si>
-  <si>
-    <t>ví dụ câu 1: G1, G3</t>
-  </si>
-  <si>
-    <t>câu 2: G2,G3</t>
-  </si>
-  <si>
-    <t>Yêu cầu: từ số điểm và tổng điểm tính ra mỗi G đạt bao nhiêu %</t>
   </si>
 </sst>
 </file>
@@ -530,7 +512,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D3" sqref="D3:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -544,7 +526,7 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,11 +551,9 @@
       <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -598,11 +578,8 @@
       <c r="H2" s="3">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -627,11 +604,8 @@
       <c r="H3" s="3">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -656,11 +630,8 @@
       <c r="H4" s="3">
         <v>10</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -685,11 +656,8 @@
       <c r="H5" s="3">
         <v>10</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -715,7 +683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -741,7 +709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -766,11 +734,8 @@
       <c r="H8" s="3">
         <v>10</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -796,7 +761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -822,7 +787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -848,7 +813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -874,7 +839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -885,7 +850,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -900,7 +865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -926,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -952,7 +917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -978,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1004,7 +969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1030,7 +995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1056,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1082,7 +1047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>

--- a/temp/test.xlsx
+++ b/temp/test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B16A76-E9BE-45A0-9ECC-C9DA7D7B42DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A40F7C-AE16-41AF-8C30-08DE642917ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,66 +31,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>mssv1</t>
-  </si>
-  <si>
-    <t>mssv2</t>
-  </si>
-  <si>
-    <t>mssv3</t>
-  </si>
-  <si>
-    <t>mssv4</t>
-  </si>
-  <si>
-    <t>mssv5</t>
-  </si>
-  <si>
-    <t>mssv6</t>
-  </si>
-  <si>
-    <t>mssv7</t>
-  </si>
-  <si>
-    <t>mssv8</t>
-  </si>
-  <si>
-    <t>mssv9</t>
-  </si>
-  <si>
-    <t>mssv10</t>
-  </si>
-  <si>
-    <t>mssv11</t>
-  </si>
-  <si>
-    <t>mssv12</t>
-  </si>
-  <si>
-    <t>mssv13</t>
-  </si>
-  <si>
-    <t>mssv14</t>
-  </si>
-  <si>
-    <t>mssv15</t>
-  </si>
-  <si>
-    <t>mssv16</t>
-  </si>
-  <si>
-    <t>mssv17</t>
-  </si>
-  <si>
-    <t>mssv18</t>
-  </si>
-  <si>
-    <t>mssv19</t>
-  </si>
-  <si>
-    <t>mssv20</t>
-  </si>
-  <si>
     <t>MSSV</t>
   </si>
   <si>
@@ -170,13 +110,73 @@
   </si>
   <si>
     <t>hovaten20</t>
+  </si>
+  <si>
+    <t>student 1</t>
+  </si>
+  <si>
+    <t>student 2</t>
+  </si>
+  <si>
+    <t>student 3</t>
+  </si>
+  <si>
+    <t>student 4</t>
+  </si>
+  <si>
+    <t>student 5</t>
+  </si>
+  <si>
+    <t>student 6</t>
+  </si>
+  <si>
+    <t>student 7</t>
+  </si>
+  <si>
+    <t>student 8</t>
+  </si>
+  <si>
+    <t>student 9</t>
+  </si>
+  <si>
+    <t>student 10</t>
+  </si>
+  <si>
+    <t>student 11</t>
+  </si>
+  <si>
+    <t>student 12</t>
+  </si>
+  <si>
+    <t>student 13</t>
+  </si>
+  <si>
+    <t>student 14</t>
+  </si>
+  <si>
+    <t>student 15</t>
+  </si>
+  <si>
+    <t>student 16</t>
+  </si>
+  <si>
+    <t>student 17</t>
+  </si>
+  <si>
+    <t>student 18</t>
+  </si>
+  <si>
+    <t>student 19</t>
+  </si>
+  <si>
+    <t>student 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +195,12 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -509,163 +515,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="2"/>
     <col min="8" max="8" width="23.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="80.85546875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E2" s="3">
         <v>2.5</v>
       </c>
       <c r="F2" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G2" s="3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H2" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -674,24 +678,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H6" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -700,24 +704,24 @@
         <v>2</v>
       </c>
       <c r="F7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H7" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -726,24 +730,24 @@
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H8" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -752,24 +756,24 @@
         <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H9" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -778,24 +782,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H10" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -804,24 +808,24 @@
         <v>2</v>
       </c>
       <c r="F11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -830,24 +834,24 @@
         <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -856,24 +860,24 @@
         <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H13" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -882,24 +886,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H14" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -908,24 +912,24 @@
         <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H15" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -934,10 +938,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H16" s="3">
         <v>10</v>
@@ -948,10 +952,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -960,10 +964,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
@@ -974,10 +978,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -986,10 +990,10 @@
         <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H18" s="3">
         <v>10</v>
@@ -1000,10 +1004,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -1012,10 +1016,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H19" s="3">
         <v>10</v>
@@ -1026,10 +1030,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -1038,10 +1042,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H20" s="3">
         <v>10</v>
@@ -1052,10 +1056,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -1064,16 +1068,17 @@
         <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H21" s="3">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
